--- a/문서/자유수강권자 수강료 및 재료비 합계(3-10월).xlsx
+++ b/문서/자유수강권자 수강료 및 재료비 합계(3-10월).xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20415" windowHeight="14085" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20415" windowHeight="14085"/>
   </bookViews>
   <sheets>
-    <sheet name="3~9월 합계" sheetId="2" r:id="rId1"/>
+    <sheet name="3~10월 합계" sheetId="2" r:id="rId1"/>
     <sheet name="금액순" sheetId="4" r:id="rId2"/>
     <sheet name="개인별" sheetId="7" r:id="rId3"/>
   </sheets>
@@ -748,7 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -4468,7 +4468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I986"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
